--- a/datasets/temp.xlsx
+++ b/datasets/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3E85BC-1A76-451C-A084-0FFFF18D8CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A4B3A9-B996-4B2C-954C-D72AB8D87A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1950" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="4840" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Country</t>
   </si>
@@ -604,15 +604,6 @@
   </si>
   <si>
     <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>−0.70</t>
-  </si>
-  <si>
-    <t>−5.10</t>
-  </si>
-  <si>
-    <t>−5.35</t>
   </si>
 </sst>
 </file>
@@ -932,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2457,24 +2448,24 @@
       <c r="A190" t="s">
         <v>104</v>
       </c>
-      <c r="B190" t="s">
-        <v>193</v>
+      <c r="B190">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>129</v>
       </c>
-      <c r="B191" t="s">
-        <v>194</v>
+      <c r="B191">
+        <v>-5.0999999999999996</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>29</v>
       </c>
-      <c r="B192" t="s">
-        <v>195</v>
+      <c r="B192">
+        <v>-5.35</v>
       </c>
     </row>
   </sheetData>
